--- a/MRO.xlsx
+++ b/MRO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Minqiang\Trading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Acquisition Date</t>
   </si>
@@ -40,15 +40,6 @@
   </si>
   <si>
     <t>Value($)</t>
-  </si>
-  <si>
-    <t>Gain/Loss</t>
-  </si>
-  <si>
-    <t>($)</t>
-  </si>
-  <si>
-    <t>Gain/Loss (%)</t>
   </si>
   <si>
     <t>08/06/2015 (Short Term) Pend Buy</t>
@@ -176,7 +167,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +210,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -436,7 +435,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -529,6 +527,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,7 +831,7 @@
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -844,7 +843,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -861,34 +860,28 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="53"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="48"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:14" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="50"/>
-      <c r="K2" s="54"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="49"/>
+      <c r="K2" s="53"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="13">
         <v>200</v>
@@ -902,20 +895,17 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="14">
-        <v>3680</v>
-      </c>
-      <c r="H3" s="13">
-        <v>-230</v>
-      </c>
-      <c r="I3" s="32">
-        <v>-5.88</v>
-      </c>
+        <f>B3*$D$26</f>
+        <v>3796</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="31"/>
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="10">
         <v>200</v>
@@ -928,75 +918,66 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="11">
-        <v>3680</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="33">
-        <v>0</v>
-      </c>
+      <c r="G4" s="14">
+        <f t="shared" ref="G4:G19" si="0">B4*$D$26</f>
+        <v>3796</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="32"/>
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6">
         <v>-200</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="8">
-        <v>-3739.93</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>40</v>
-      </c>
+      <c r="G5" s="14">
+        <f t="shared" si="0"/>
+        <v>-3796</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="33"/>
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="10">
         <v>-200</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="11">
-        <v>-3929.93</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>40</v>
-      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="0"/>
+        <v>-3796</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="32"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6">
         <v>100</v>
@@ -1009,21 +990,18 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="8">
-        <v>1840</v>
-      </c>
-      <c r="H7" s="6">
-        <v>-180</v>
-      </c>
-      <c r="I7" s="34">
-        <v>-8.91</v>
-      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>1898</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="33"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" s="10">
         <v>200</v>
@@ -1036,21 +1014,18 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="11">
-        <v>3680</v>
-      </c>
-      <c r="H8" s="10">
-        <v>-310</v>
-      </c>
-      <c r="I8" s="33">
-        <v>-7.77</v>
-      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="0"/>
+        <v>3796</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="32"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" s="6">
         <v>50</v>
@@ -1063,21 +1038,18 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="6">
-        <v>920</v>
-      </c>
-      <c r="H9" s="6">
-        <v>-80.5</v>
-      </c>
-      <c r="I9" s="34">
-        <v>-8.0500000000000007</v>
-      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
+        <v>949</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="33"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="10">
         <v>100</v>
@@ -1090,21 +1062,18 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="11">
-        <v>1840</v>
-      </c>
-      <c r="H10" s="10">
-        <v>-200</v>
-      </c>
-      <c r="I10" s="33">
-        <v>-9.8000000000000007</v>
-      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>1898</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="32"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" s="6">
         <v>12</v>
@@ -1117,20 +1086,17 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="6">
-        <v>220.8</v>
-      </c>
-      <c r="H11" s="6">
-        <v>-30.6</v>
-      </c>
-      <c r="I11" s="34">
-        <v>-12.17</v>
-      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="0"/>
+        <v>227.76</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="33"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="10">
         <v>40</v>
@@ -1143,21 +1109,18 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="10">
-        <v>736</v>
-      </c>
-      <c r="H12" s="10">
-        <v>-156</v>
-      </c>
-      <c r="I12" s="33">
-        <v>-17.489999999999998</v>
-      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="0"/>
+        <v>759.2</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="32"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" s="6">
         <v>20</v>
@@ -1170,19 +1133,16 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="6">
-        <v>368</v>
-      </c>
-      <c r="H13" s="6">
-        <v>-106</v>
-      </c>
-      <c r="I13" s="34">
-        <v>-22.36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="14">
+        <f t="shared" si="0"/>
+        <v>379.6</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="10">
         <v>20</v>
@@ -1195,19 +1155,16 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="10">
-        <v>368</v>
-      </c>
-      <c r="H14" s="10">
-        <v>-104</v>
-      </c>
-      <c r="I14" s="33">
-        <v>-22.03</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="14">
+        <f t="shared" si="0"/>
+        <v>379.6</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="6">
         <v>20</v>
@@ -1220,19 +1177,16 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="6">
-        <v>368</v>
-      </c>
-      <c r="H15" s="6">
-        <v>-112.4</v>
-      </c>
-      <c r="I15" s="34">
-        <v>-23.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="14">
+        <f t="shared" si="0"/>
+        <v>379.6</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16" s="10">
         <v>20</v>
@@ -1245,19 +1199,16 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="10">
-        <v>368</v>
-      </c>
-      <c r="H16" s="10">
-        <v>-110.2</v>
-      </c>
-      <c r="I16" s="33">
-        <v>-23.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="14">
+        <f t="shared" si="0"/>
+        <v>379.6</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B17" s="6">
         <v>50</v>
@@ -1270,21 +1221,18 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="6">
-        <v>920</v>
-      </c>
-      <c r="H17" s="6">
-        <v>-297.5</v>
-      </c>
-      <c r="I17" s="34">
-        <v>-24.44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="14">
+        <f t="shared" si="0"/>
+        <v>949</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="29">
+        <v>8</v>
+      </c>
+      <c r="B18" s="28">
         <v>2998</v>
       </c>
       <c r="C18" s="10">
@@ -1295,19 +1243,16 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="11">
-        <v>55163.199999999997</v>
-      </c>
-      <c r="H18" s="11">
-        <v>-25900.720000000001</v>
-      </c>
-      <c r="I18" s="33">
-        <v>-31.95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="14">
+        <f t="shared" si="0"/>
+        <v>56902.04</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B19" s="6">
         <v>2</v>
@@ -1320,134 +1265,127 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="6">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="H19" s="6">
-        <v>-20.92</v>
-      </c>
-      <c r="I19" s="51">
-        <v>-36.24</v>
-      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="0"/>
+        <v>37.96</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="52"/>
+      <c r="A20" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="51"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="36">
+      <c r="A21" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="35">
         <v>78</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="35">
         <v>27.1</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="36">
         <v>2113.8000000000002</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="37">
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="36">
         <v>1435.2</v>
       </c>
-      <c r="H21" s="36">
-        <v>-678.6</v>
-      </c>
-      <c r="I21" s="38">
-        <v>-32.1</v>
-      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44">
         <f>SUM(B3:B21)</f>
         <v>3710</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46">
+      <c r="C23" s="44"/>
+      <c r="D23" s="45">
         <f>SUM(D3:D21)</f>
         <v>104141.44</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="46">
         <f>D23+G5+G6</f>
-        <v>96471.580000000016</v>
-      </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="46">
+        <v>96549.440000000002</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="45">
         <f>SUM(G3:G21)</f>
-        <v>67954.14</v>
+        <v>70370.560000000012</v>
       </c>
       <c r="H23" s="45">
-        <f>SUM(H3:H21)</f>
-        <v>-28517.439999999999</v>
-      </c>
-      <c r="I23" s="45"/>
+        <f>G23-E23</f>
+        <v>-26178.87999999999</v>
+      </c>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="21"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="47">
+        <f>E23/B23</f>
+        <v>26.024107816711592</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="20">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="22">
+        <f>(D26-D25)/D25</f>
+        <v>-0.27067624628376924</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="48">
-        <f>E23/B23</f>
-        <v>26.003121293800543</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="21">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="23">
-        <f>(D26-D25)/D25</f>
-        <v>-0.29239264040248969</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="18" t="s">
-        <v>15</v>
-      </c>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>46</v>
+      <c r="A29" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="D29" s="19">
         <v>382.26</v>
@@ -1455,13 +1393,13 @@
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="20">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="56">
         <f>H23+D29</f>
-        <v>-28135.18</v>
+        <v>-25796.619999999992</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
@@ -1584,178 +1522,178 @@
       <c r="A1" s="17"/>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
+      <c r="A35" s="30"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="A36" s="26"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
+      <c r="A37" s="27"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+      <c r="A38" s="26"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
+      <c r="A39" s="27"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
+      <c r="A40" s="26"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
+      <c r="A41" s="27"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
+      <c r="A42" s="26"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
+      <c r="A43" s="27"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
+      <c r="A44" s="26"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
+      <c r="A45" s="27"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
+      <c r="A46" s="26"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
+      <c r="A47" s="27"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
+      <c r="A48" s="26"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
+      <c r="A49" s="27"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
+      <c r="A50" s="26"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="A51" s="27"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="54"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="55"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
+      <c r="A54" s="27"/>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
